--- a/outputs/SORs/SOR Testing_Finance.xlsx
+++ b/outputs/SORs/SOR Testing_Finance.xlsx
@@ -29,17 +29,18 @@
     <sheet name="Pune India" sheetId="21" state="visible" r:id="rId21"/>
     <sheet name="Ratingen Germany" sheetId="22" state="visible" r:id="rId22"/>
     <sheet name="Rosemont Illinois" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="Shanghai China" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="Singapore" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="South Beloit Gardner St Illino" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="Tianjin China" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="Tipp City Ohio" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="Scarborough Canada" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="Shanghai China" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="Singapore" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="South Beloit Gardner St Illino" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="Tianjin China" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="Tipp City Ohio" sheetId="29" state="visible" r:id="rId29"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t xml:space="preserve">segment_function</t>
   </si>
@@ -53,7 +54,7 @@
     <t xml:space="preserve">cvd</t>
   </si>
   <si>
-    <t xml:space="preserve">ytd_value</t>
+    <t xml:space="preserve">ytd</t>
   </si>
   <si>
     <t xml:space="preserve">data_source</t>
@@ -203,6 +204,9 @@
     <t xml:space="preserve">Rosemont Illinois</t>
   </si>
   <si>
+    <t xml:space="preserve">Scarborough Canada</t>
+  </si>
+  <si>
     <t xml:space="preserve">Shanghai China</t>
   </si>
   <si>
@@ -222,7 +226,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="28">
+  <numFmts count="29">
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
@@ -251,6 +255,7 @@
     <numFmt numFmtId="190" formatCode="0.0%"/>
     <numFmt numFmtId="191" formatCode="0.0%"/>
     <numFmt numFmtId="192" formatCode="0.0%"/>
+    <numFmt numFmtId="193" formatCode="0.0%"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -286,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -316,6 +321,7 @@
     <xf numFmtId="190" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="192" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="193" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2829,16 +2835,16 @@
         <v>0</v>
       </c>
       <c r="J2" s="15" t="n">
-        <v>0.0047</v>
+        <v>0.0048</v>
       </c>
       <c r="K2" s="15" t="n">
-        <v>0.0043</v>
+        <v>0.0044</v>
       </c>
       <c r="L2" s="15" t="n">
         <v>0.0043</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>0.0041</v>
+        <v>0.0042</v>
       </c>
       <c r="N2" s="15" t="n">
         <v>0.0128</v>
@@ -2853,7 +2859,7 @@
         <v>0.0078</v>
       </c>
       <c r="R2" s="15" t="n">
-        <v>0.016</v>
+        <v>0.0161</v>
       </c>
       <c r="S2" s="15" t="n">
         <v>0.0039</v>
@@ -2868,7 +2874,7 @@
         <v>0.0115</v>
       </c>
       <c r="W2" s="15" t="n">
-        <v>0.0459</v>
+        <v>0.0461</v>
       </c>
     </row>
     <row r="3">
@@ -2900,16 +2906,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>0.00423</v>
+        <v>0.00432</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>0.00387</v>
+        <v>0.00396</v>
       </c>
       <c r="L3" s="15" t="n">
         <v>0.00387</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>0.00369</v>
+        <v>0.00378</v>
       </c>
       <c r="N3" s="15" t="n">
         <v>0.01152</v>
@@ -2924,7 +2930,7 @@
         <v>0.00702</v>
       </c>
       <c r="R3" s="15" t="n">
-        <v>0.0144</v>
+        <v>0.01449</v>
       </c>
       <c r="S3" s="15" t="n">
         <v>0.00351</v>
@@ -2939,7 +2945,7 @@
         <v>0.01035</v>
       </c>
       <c r="W3" s="15" t="n">
-        <v>0.04131</v>
+        <v>0.04149</v>
       </c>
     </row>
     <row r="4">
@@ -3226,7 +3232,7 @@
         <v>45</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -3297,7 +3303,7 @@
         <v>45</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -3368,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="E10" s="15" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -3533,13 +3539,13 @@
         <v>0</v>
       </c>
       <c r="H2" s="16" t="n">
-        <v>0.0769</v>
+        <v>0.075</v>
       </c>
       <c r="I2" s="16" t="n">
-        <v>0.027</v>
+        <v>0.0263</v>
       </c>
       <c r="J2" s="16" t="n">
-        <v>0.1018</v>
+        <v>0.0993</v>
       </c>
       <c r="K2" s="16" t="n">
         <v>0</v>
@@ -3548,22 +3554,22 @@
         <v>0</v>
       </c>
       <c r="M2" s="16" t="n">
-        <v>0.0571</v>
+        <v>0.0556</v>
       </c>
       <c r="N2" s="16" t="n">
-        <v>0.0551</v>
+        <v>0.0536</v>
       </c>
       <c r="O2" s="16" t="n">
         <v>0</v>
       </c>
       <c r="P2" s="16" t="n">
+        <v>0.0278</v>
+      </c>
+      <c r="Q2" s="16" t="n">
         <v>0.0286</v>
       </c>
-      <c r="Q2" s="16" t="n">
-        <v>0.0294</v>
-      </c>
       <c r="R2" s="16" t="n">
-        <v>0.0576</v>
+        <v>0.056</v>
       </c>
       <c r="S2" s="16" t="n">
         <v>0</v>
@@ -3578,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="W2" s="16" t="n">
-        <v>0.218</v>
+        <v>0.2122</v>
       </c>
     </row>
     <row r="3">
@@ -3604,13 +3610,13 @@
         <v>0</v>
       </c>
       <c r="H3" s="16" t="n">
-        <v>0.06921</v>
+        <v>0.0675</v>
       </c>
       <c r="I3" s="16" t="n">
-        <v>0.0243</v>
+        <v>0.02367</v>
       </c>
       <c r="J3" s="16" t="n">
-        <v>0.09162</v>
+        <v>0.08937</v>
       </c>
       <c r="K3" s="16" t="n">
         <v>0</v>
@@ -3619,22 +3625,22 @@
         <v>0</v>
       </c>
       <c r="M3" s="16" t="n">
-        <v>0.05139</v>
+        <v>0.05004</v>
       </c>
       <c r="N3" s="16" t="n">
-        <v>0.04959</v>
+        <v>0.04824</v>
       </c>
       <c r="O3" s="16" t="n">
         <v>0</v>
       </c>
       <c r="P3" s="16" t="n">
+        <v>0.02502</v>
+      </c>
+      <c r="Q3" s="16" t="n">
         <v>0.02574</v>
       </c>
-      <c r="Q3" s="16" t="n">
-        <v>0.02646</v>
-      </c>
       <c r="R3" s="16" t="n">
-        <v>0.05184</v>
+        <v>0.0504</v>
       </c>
       <c r="S3" s="16" t="n">
         <v>0</v>
@@ -3649,7 +3655,7 @@
         <v>0</v>
       </c>
       <c r="W3" s="16" t="n">
-        <v>0.1962</v>
+        <v>0.19098</v>
       </c>
     </row>
     <row r="4">
@@ -3916,7 +3922,7 @@
         <v>45</v>
       </c>
       <c r="E8" s="16" t="n">
-        <v>1</v>
+        <v>0.0639</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -3987,7 +3993,7 @@
         <v>45</v>
       </c>
       <c r="E9" s="16" t="n">
-        <v>1</v>
+        <v>0.0639</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -4058,7 +4064,7 @@
         <v>45</v>
       </c>
       <c r="E10" s="16" t="n">
-        <v>1</v>
+        <v>0.0639</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -4213,7 +4219,9 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="17"/>
+      <c r="E2" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -4272,7 +4280,9 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="17"/>
+      <c r="E3" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -4629,7 +4639,9 @@
       <c r="D5" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="18"/>
+      <c r="E5" s="18" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F5" t="s">
         <v>27</v>
       </c>
@@ -4676,7 +4688,9 @@
       <c r="D6" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="18"/>
+      <c r="E6" s="18" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F6" t="s">
         <v>28</v>
       </c>
@@ -6001,7 +6015,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -6072,7 +6086,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -6143,7 +6157,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -6714,7 +6728,9 @@
       <c r="D8" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="23"/>
+      <c r="E8" s="23" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F8" t="s">
         <v>27</v>
       </c>
@@ -6761,7 +6777,9 @@
       <c r="D9" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="23"/>
+      <c r="E9" s="23" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F9" t="s">
         <v>28</v>
       </c>
@@ -6918,10 +6936,10 @@
         <v>0</v>
       </c>
       <c r="M2" s="24" t="n">
-        <v>0.1667</v>
+        <v>0</v>
       </c>
       <c r="N2" s="24" t="n">
-        <v>0.1667</v>
+        <v>0</v>
       </c>
       <c r="O2" s="24" t="n">
         <v>0</v>
@@ -6936,7 +6954,7 @@
         <v>0</v>
       </c>
       <c r="S2" s="24" t="n">
-        <v>0.1667</v>
+        <v>0</v>
       </c>
       <c r="T2" s="24" t="n">
         <v>0</v>
@@ -6945,10 +6963,10 @@
         <v>0</v>
       </c>
       <c r="V2" s="24" t="n">
-        <v>0.1667</v>
+        <v>0</v>
       </c>
       <c r="W2" s="24" t="n">
-        <v>0.3448</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -6989,10 +7007,10 @@
         <v>0</v>
       </c>
       <c r="M3" s="24" t="n">
-        <v>0.15003</v>
+        <v>0</v>
       </c>
       <c r="N3" s="24" t="n">
-        <v>0.15003</v>
+        <v>0</v>
       </c>
       <c r="O3" s="24" t="n">
         <v>0</v>
@@ -7007,7 +7025,7 @@
         <v>0</v>
       </c>
       <c r="S3" s="24" t="n">
-        <v>0.15003</v>
+        <v>0</v>
       </c>
       <c r="T3" s="24" t="n">
         <v>0</v>
@@ -7016,191 +7034,10 @@
         <v>0</v>
       </c>
       <c r="V3" s="24" t="n">
-        <v>0.15003</v>
+        <v>0</v>
       </c>
       <c r="W3" s="24" t="n">
-        <v>0.31032</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" s="24" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" s="24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="24"/>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="24"/>
-      <c r="W5" s="24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="24"/>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="24" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H6" s="24" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I6" s="24" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J6" s="24" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K6" s="24" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L6" s="24" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M6" s="24" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N6" s="24" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O6" s="24" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P6" s="24" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q6" s="24" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R6" s="24" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S6" s="24" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T6" s="24" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="U6" s="24" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="V6" s="24" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="W6" s="24" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7326,10 +7163,10 @@
         <v>0</v>
       </c>
       <c r="M2" s="25" t="n">
-        <v>0</v>
+        <v>0.1667</v>
       </c>
       <c r="N2" s="25" t="n">
-        <v>0</v>
+        <v>0.1667</v>
       </c>
       <c r="O2" s="25" t="n">
         <v>0</v>
@@ -7344,7 +7181,7 @@
         <v>0</v>
       </c>
       <c r="S2" s="25" t="n">
-        <v>0</v>
+        <v>0.1667</v>
       </c>
       <c r="T2" s="25" t="n">
         <v>0</v>
@@ -7353,10 +7190,10 @@
         <v>0</v>
       </c>
       <c r="V2" s="25" t="n">
-        <v>0</v>
+        <v>0.1667</v>
       </c>
       <c r="W2" s="25" t="n">
-        <v>0</v>
+        <v>0.3448</v>
       </c>
     </row>
     <row r="3">
@@ -7397,10 +7234,10 @@
         <v>0</v>
       </c>
       <c r="M3" s="25" t="n">
-        <v>0</v>
+        <v>0.15003</v>
       </c>
       <c r="N3" s="25" t="n">
-        <v>0</v>
+        <v>0.15003</v>
       </c>
       <c r="O3" s="25" t="n">
         <v>0</v>
@@ -7415,7 +7252,7 @@
         <v>0</v>
       </c>
       <c r="S3" s="25" t="n">
-        <v>0</v>
+        <v>0.15003</v>
       </c>
       <c r="T3" s="25" t="n">
         <v>0</v>
@@ -7424,10 +7261,10 @@
         <v>0</v>
       </c>
       <c r="V3" s="25" t="n">
-        <v>0</v>
+        <v>0.15003</v>
       </c>
       <c r="W3" s="25" t="n">
-        <v>0</v>
+        <v>0.31032</v>
       </c>
     </row>
     <row r="4">
@@ -7499,6 +7336,116 @@
       </c>
       <c r="W4" s="25" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="25"/>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="25"/>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M6" s="25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N6" s="25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O6" s="25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P6" s="25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" s="25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R6" s="25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S6" s="25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T6" s="25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U6" s="25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V6" s="25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W6" s="25" t="n">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -7612,22 +7559,22 @@
         <v>0</v>
       </c>
       <c r="I2" s="26" t="n">
-        <v>0.0909</v>
+        <v>0</v>
       </c>
       <c r="J2" s="26" t="n">
-        <v>0.0855</v>
+        <v>0</v>
       </c>
       <c r="K2" s="26" t="n">
         <v>0</v>
       </c>
       <c r="L2" s="26" t="n">
-        <v>0.0909</v>
+        <v>0</v>
       </c>
       <c r="M2" s="26" t="n">
         <v>0</v>
       </c>
       <c r="N2" s="26" t="n">
-        <v>0.0885</v>
+        <v>0</v>
       </c>
       <c r="O2" s="26" t="n">
         <v>0</v>
@@ -7654,7 +7601,7 @@
         <v>0</v>
       </c>
       <c r="W2" s="26" t="n">
-        <v>0.1786</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -7683,22 +7630,22 @@
         <v>0</v>
       </c>
       <c r="I3" s="26" t="n">
-        <v>0.08181</v>
+        <v>0</v>
       </c>
       <c r="J3" s="26" t="n">
-        <v>0.07695</v>
+        <v>0</v>
       </c>
       <c r="K3" s="26" t="n">
         <v>0</v>
       </c>
       <c r="L3" s="26" t="n">
-        <v>0.08181</v>
+        <v>0</v>
       </c>
       <c r="M3" s="26" t="n">
         <v>0</v>
       </c>
       <c r="N3" s="26" t="n">
-        <v>0.07965</v>
+        <v>0</v>
       </c>
       <c r="O3" s="26" t="n">
         <v>0</v>
@@ -7725,7 +7672,7 @@
         <v>0</v>
       </c>
       <c r="W3" s="26" t="n">
-        <v>0.16074</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -7797,116 +7744,6 @@
       </c>
       <c r="W4" s="26" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="26"/>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="26" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
-      <c r="W5" s="26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="26"/>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="26" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H6" s="26" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I6" s="26" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J6" s="26" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K6" s="26" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L6" s="26" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M6" s="26" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N6" s="26" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O6" s="26" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P6" s="26" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q6" s="26" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R6" s="26" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S6" s="26" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T6" s="26" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="U6" s="26" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="V6" s="26" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="W6" s="26" t="n">
-        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -8020,22 +7857,22 @@
         <v>0</v>
       </c>
       <c r="I2" s="27" t="n">
-        <v>0</v>
+        <v>0.0909</v>
       </c>
       <c r="J2" s="27" t="n">
-        <v>0</v>
+        <v>0.0855</v>
       </c>
       <c r="K2" s="27" t="n">
         <v>0</v>
       </c>
       <c r="L2" s="27" t="n">
-        <v>0</v>
+        <v>0.0909</v>
       </c>
       <c r="M2" s="27" t="n">
         <v>0</v>
       </c>
       <c r="N2" s="27" t="n">
-        <v>0</v>
+        <v>0.0885</v>
       </c>
       <c r="O2" s="27" t="n">
         <v>0</v>
@@ -8062,7 +7899,7 @@
         <v>0</v>
       </c>
       <c r="W2" s="27" t="n">
-        <v>0</v>
+        <v>0.1786</v>
       </c>
     </row>
     <row r="3">
@@ -8091,22 +7928,22 @@
         <v>0</v>
       </c>
       <c r="I3" s="27" t="n">
-        <v>0</v>
+        <v>0.08181</v>
       </c>
       <c r="J3" s="27" t="n">
-        <v>0</v>
+        <v>0.07695</v>
       </c>
       <c r="K3" s="27" t="n">
         <v>0</v>
       </c>
       <c r="L3" s="27" t="n">
-        <v>0</v>
+        <v>0.08181</v>
       </c>
       <c r="M3" s="27" t="n">
         <v>0</v>
       </c>
       <c r="N3" s="27" t="n">
-        <v>0</v>
+        <v>0.07965</v>
       </c>
       <c r="O3" s="27" t="n">
         <v>0</v>
@@ -8133,7 +7970,7 @@
         <v>0</v>
       </c>
       <c r="W3" s="27" t="n">
-        <v>0</v>
+        <v>0.16074</v>
       </c>
     </row>
     <row r="4">
@@ -8205,6 +8042,116 @@
       </c>
       <c r="W4" s="27" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="27"/>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="27"/>
+      <c r="W5" s="27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="27"/>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M6" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N6" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O6" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P6" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q6" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R6" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S6" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T6" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U6" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V6" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W6" s="27" t="n">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -8505,6 +8452,304 @@
         <v>0</v>
       </c>
     </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" s="29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" s="29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" s="29" t="n">
+        <v>0</v>
+      </c>
+    </row>
     <row r="5">
       <c r="A5" t="s">
         <v>23</v>
@@ -8513,60 +8758,60 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="28" t="n">
+      <c r="E5" s="29" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="28" t="n">
+      <c r="G5" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28" t="n">
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28" t="n">
+      <c r="K5" s="29"/>
+      <c r="L5" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="M5" s="28" t="n">
+      <c r="M5" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="N5" s="28" t="n">
+      <c r="N5" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="O5" s="28" t="n">
+      <c r="O5" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="P5" s="28" t="n">
+      <c r="P5" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="Q5" s="28" t="n">
+      <c r="Q5" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="R5" s="28" t="n">
+      <c r="R5" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="S5" s="28" t="n">
+      <c r="S5" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="T5" s="28" t="n">
+      <c r="T5" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="U5" s="28" t="n">
+      <c r="U5" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="V5" s="28" t="n">
+      <c r="V5" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="W5" s="28" t="n">
+      <c r="W5" s="29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8967,7 +9212,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -9038,7 +9283,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -9109,7 +9354,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>

--- a/outputs/SORs/SOR Testing_Finance.xlsx
+++ b/outputs/SORs/SOR Testing_Finance.xlsx
@@ -35,12 +35,14 @@
     <sheet name="South Beloit Gardner St Illino" sheetId="27" state="visible" r:id="rId27"/>
     <sheet name="Tianjin China" sheetId="28" state="visible" r:id="rId28"/>
     <sheet name="Tipp City Ohio" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="Downers Grove Aerospace Illino" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="Fort Wayne Indiana" sheetId="31" state="visible" r:id="rId31"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t xml:space="preserve">segment_function</t>
   </si>
@@ -221,12 +223,18 @@
   <si>
     <t xml:space="preserve">Tipp City Ohio</t>
   </si>
+  <si>
+    <t xml:space="preserve">Downers Grove Aerospace Illinois</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fort Wayne Indiana</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="29">
+  <numFmts count="31">
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
@@ -256,6 +264,8 @@
     <numFmt numFmtId="191" formatCode="0.0%"/>
     <numFmt numFmtId="192" formatCode="0.0%"/>
     <numFmt numFmtId="193" formatCode="0.0%"/>
+    <numFmt numFmtId="194" formatCode="0.0%"/>
+    <numFmt numFmtId="195" formatCode="0.0%"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -291,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -322,6 +332,8 @@
     <xf numFmtId="191" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="192" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="193" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="194" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="195" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2968,19 +2980,19 @@
         <v>29</v>
       </c>
       <c r="G4" s="15" t="n">
+        <v>0.0078</v>
+      </c>
+      <c r="H4" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="15" t="n">
         <v>0.0076</v>
       </c>
-      <c r="H4" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="15" t="n">
-        <v>0.0074</v>
-      </c>
       <c r="J4" s="15" t="n">
-        <v>0.015</v>
+        <v>0.0153</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>0.0228</v>
+        <v>0.0233</v>
       </c>
       <c r="L4" s="15" t="n">
         <v>0</v>
@@ -3033,7 +3045,7 @@
         <v>30</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>1</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -3096,7 +3108,7 @@
         <v>30</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>1</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -3167,55 +3179,51 @@
         <v>30</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>1</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
       </c>
       <c r="G7" s="15"/>
-      <c r="H7" s="15" t="n">
-        <v>1</v>
-      </c>
+      <c r="H7" s="15"/>
       <c r="I7" s="15"/>
-      <c r="J7" s="15" t="n">
-        <v>1</v>
-      </c>
+      <c r="J7" s="15"/>
       <c r="K7" s="15"/>
       <c r="L7" s="15" t="n">
-        <v>1</v>
+        <v>0.3333</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>1</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="N7" s="15" t="n">
-        <v>1</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="O7" s="15" t="n">
-        <v>1</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="P7" s="15" t="n">
-        <v>1</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Q7" s="15" t="n">
-        <v>1</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="R7" s="15" t="n">
-        <v>1</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="S7" s="15" t="n">
-        <v>1</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="T7" s="15" t="n">
-        <v>1</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="U7" s="15" t="n">
-        <v>1</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="V7" s="15" t="n">
-        <v>1</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W7" s="15" t="n">
-        <v>1</v>
+        <v>0.333333333333333</v>
       </c>
     </row>
     <row r="8">
@@ -3232,7 +3240,7 @@
         <v>45</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -3303,7 +3311,7 @@
         <v>45</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -3374,7 +3382,7 @@
         <v>45</v>
       </c>
       <c r="E10" s="15" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -3690,7 +3698,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="16" t="n">
-        <v>0.0588</v>
+        <v>0.0571</v>
       </c>
       <c r="L4" s="16" t="n">
         <v>0</v>
@@ -3922,7 +3930,7 @@
         <v>45</v>
       </c>
       <c r="E8" s="16" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -3993,7 +4001,7 @@
         <v>45</v>
       </c>
       <c r="E9" s="16" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -4064,7 +4072,7 @@
         <v>45</v>
       </c>
       <c r="E10" s="16" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -4085,40 +4093,40 @@
         <v>0</v>
       </c>
       <c r="L10" s="16" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="M10" s="16" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="N10" s="16" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O10" s="16" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="P10" s="16" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="16" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="R10" s="16" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S10" s="16" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="T10" s="16" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="U10" s="16" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="V10" s="16" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W10" s="16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4566,29 +4574,19 @@
         <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="E4" s="18" t="n">
-        <v>0</v>
+        <v>0.0776</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="18" t="n">
-        <v>0</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
       <c r="L4" s="18" t="n">
         <v>0</v>
       </c>
@@ -4601,27 +4599,15 @@
       <c r="O4" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="P4" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="18" t="n">
-        <v>0</v>
-      </c>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
       <c r="R4" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="S4" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" s="18" t="n">
-        <v>0</v>
-      </c>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
       <c r="W4" s="18" t="n">
         <v>0</v>
       </c>
@@ -4640,10 +4626,10 @@
         <v>45</v>
       </c>
       <c r="E5" s="18" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
@@ -4672,55 +4658,6 @@
       <c r="U5" s="18"/>
       <c r="V5" s="18"/>
       <c r="W5" s="18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="18" t="n">
-        <v>0.0639</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6178,7 +6115,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="22" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="M4" s="22" t="n">
         <v>0.0833333333333333</v>
@@ -6729,7 +6666,7 @@
         <v>45</v>
       </c>
       <c r="E8" s="23" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -6778,7 +6715,7 @@
         <v>45</v>
       </c>
       <c r="E9" s="23" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -6810,6 +6747,67 @@
       <c r="U9" s="23"/>
       <c r="V9" s="23"/>
       <c r="W9" s="23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="23" t="n">
+        <v>0.0776</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" s="23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8778,9 +8776,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="29"/>
-      <c r="L5" s="29" t="n">
-        <v>1</v>
-      </c>
+      <c r="L5" s="29"/>
       <c r="M5" s="29" t="n">
         <v>1</v>
       </c>
@@ -9119,6 +9115,298 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="30" t="n">
+        <v>0.0776</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" s="30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="31" t="n">
+        <v>0.0776</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" s="31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
@@ -9375,7 +9663,7 @@
         <v>0.25</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.3333</v>
       </c>
       <c r="M4" s="4" t="n">
         <v>0.0833333333333333</v>

--- a/outputs/SORs/SOR Testing_Finance.xlsx
+++ b/outputs/SORs/SOR Testing_Finance.xlsx
@@ -2014,7 +2014,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="13" t="n">
-        <v>0</v>
+        <v>0.0476</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2085,7 +2085,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="13" t="n">
-        <v>0</v>
+        <v>0.0476</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -2156,7 +2156,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="13" t="n">
-        <v>0</v>
+        <v>0.0476</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -2180,37 +2180,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="13" t="n">
-        <v>0</v>
+        <v>0.00951666666666667</v>
       </c>
       <c r="N4" s="13" t="n">
-        <v>0</v>
+        <v>0.02855</v>
       </c>
       <c r="O4" s="13" t="n">
-        <v>0</v>
+        <v>0.00951666666666667</v>
       </c>
       <c r="P4" s="13" t="n">
-        <v>0</v>
+        <v>0.00951666666666667</v>
       </c>
       <c r="Q4" s="13" t="n">
-        <v>0</v>
+        <v>0.00951666666666667</v>
       </c>
       <c r="R4" s="13" t="n">
-        <v>0</v>
+        <v>0.02855</v>
       </c>
       <c r="S4" s="13" t="n">
-        <v>0</v>
+        <v>0.00951666666666667</v>
       </c>
       <c r="T4" s="13" t="n">
-        <v>0</v>
+        <v>0.00951666666666667</v>
       </c>
       <c r="U4" s="13" t="n">
-        <v>0</v>
+        <v>0.00951666666666667</v>
       </c>
       <c r="V4" s="13" t="n">
-        <v>0</v>
+        <v>0.02855</v>
       </c>
       <c r="W4" s="13" t="n">
-        <v>0</v>
+        <v>0.1142</v>
       </c>
     </row>
     <row r="5">
@@ -2832,7 +2832,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="15" t="n">
-        <v>0</v>
+        <v>0.0384</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2903,7 +2903,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>0</v>
+        <v>0.0384</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -2974,7 +2974,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>0</v>
+        <v>0.0384</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -2998,37 +2998,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>0</v>
+        <v>0.00768333333333333</v>
       </c>
       <c r="N4" s="15" t="n">
-        <v>0</v>
+        <v>0.02305</v>
       </c>
       <c r="O4" s="15" t="n">
-        <v>0</v>
+        <v>0.00768333333333333</v>
       </c>
       <c r="P4" s="15" t="n">
-        <v>0</v>
+        <v>0.00768333333333333</v>
       </c>
       <c r="Q4" s="15" t="n">
-        <v>0</v>
+        <v>0.00768333333333333</v>
       </c>
       <c r="R4" s="15" t="n">
-        <v>0</v>
+        <v>0.02305</v>
       </c>
       <c r="S4" s="15" t="n">
-        <v>0</v>
+        <v>0.00768333333333333</v>
       </c>
       <c r="T4" s="15" t="n">
-        <v>0</v>
+        <v>0.00768333333333333</v>
       </c>
       <c r="U4" s="15" t="n">
-        <v>0</v>
+        <v>0.00768333333333333</v>
       </c>
       <c r="V4" s="15" t="n">
-        <v>0</v>
+        <v>0.02305</v>
       </c>
       <c r="W4" s="15" t="n">
-        <v>0</v>
+        <v>0.0922</v>
       </c>
     </row>
     <row r="5">
@@ -3240,7 +3240,7 @@
         <v>45</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -3311,7 +3311,7 @@
         <v>45</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -3382,7 +3382,7 @@
         <v>45</v>
       </c>
       <c r="E10" s="15" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -3538,7 +3538,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="16" t="n">
-        <v>0</v>
+        <v>0.0559</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -3609,7 +3609,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="16" t="n">
-        <v>0</v>
+        <v>0.0559</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -3680,7 +3680,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="16" t="n">
-        <v>0</v>
+        <v>0.0559</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -3704,37 +3704,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="16" t="n">
-        <v>0</v>
+        <v>0.0111833333333333</v>
       </c>
       <c r="N4" s="16" t="n">
-        <v>0</v>
+        <v>0.03355</v>
       </c>
       <c r="O4" s="16" t="n">
-        <v>0</v>
+        <v>0.0111833333333333</v>
       </c>
       <c r="P4" s="16" t="n">
-        <v>0</v>
+        <v>0.0111833333333333</v>
       </c>
       <c r="Q4" s="16" t="n">
-        <v>0</v>
+        <v>0.0111833333333333</v>
       </c>
       <c r="R4" s="16" t="n">
-        <v>0</v>
+        <v>0.03355</v>
       </c>
       <c r="S4" s="16" t="n">
-        <v>0</v>
+        <v>0.0111833333333333</v>
       </c>
       <c r="T4" s="16" t="n">
-        <v>0</v>
+        <v>0.0111833333333333</v>
       </c>
       <c r="U4" s="16" t="n">
-        <v>0</v>
+        <v>0.0111833333333333</v>
       </c>
       <c r="V4" s="16" t="n">
-        <v>0</v>
+        <v>0.03355</v>
       </c>
       <c r="W4" s="16" t="n">
-        <v>0</v>
+        <v>0.1342</v>
       </c>
     </row>
     <row r="5">
@@ -3930,7 +3930,7 @@
         <v>45</v>
       </c>
       <c r="E8" s="16" t="n">
-        <v>0.0776</v>
+        <v>0.3846</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -4001,7 +4001,7 @@
         <v>45</v>
       </c>
       <c r="E9" s="16" t="n">
-        <v>0.0776</v>
+        <v>0.3846</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -4072,7 +4072,7 @@
         <v>45</v>
       </c>
       <c r="E10" s="16" t="n">
-        <v>0.0776</v>
+        <v>0.3846</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -4096,37 +4096,37 @@
         <v>0</v>
       </c>
       <c r="M10" s="16" t="n">
-        <v>0</v>
+        <v>0.0769166666666667</v>
       </c>
       <c r="N10" s="16" t="n">
-        <v>0</v>
+        <v>0.23075</v>
       </c>
       <c r="O10" s="16" t="n">
-        <v>0</v>
+        <v>0.0769166666666667</v>
       </c>
       <c r="P10" s="16" t="n">
-        <v>0</v>
+        <v>0.0769166666666667</v>
       </c>
       <c r="Q10" s="16" t="n">
-        <v>0</v>
+        <v>0.0769166666666667</v>
       </c>
       <c r="R10" s="16" t="n">
-        <v>0</v>
+        <v>0.23075</v>
       </c>
       <c r="S10" s="16" t="n">
-        <v>0</v>
+        <v>0.0769166666666667</v>
       </c>
       <c r="T10" s="16" t="n">
-        <v>0</v>
+        <v>0.0769166666666667</v>
       </c>
       <c r="U10" s="16" t="n">
-        <v>0</v>
+        <v>0.0769166666666667</v>
       </c>
       <c r="V10" s="16" t="n">
-        <v>0</v>
+        <v>0.23075</v>
       </c>
       <c r="W10" s="16" t="n">
-        <v>0</v>
+        <v>0.923</v>
       </c>
     </row>
   </sheetData>
@@ -4227,9 +4227,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="17" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="17"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -4288,9 +4286,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="17" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="17"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -4434,9 +4430,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="18" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="18"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -4505,9 +4499,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="18" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="18"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -4576,9 +4568,7 @@
       <c r="D4" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="18" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E4" s="18"/>
       <c r="F4" t="s">
         <v>27</v>
       </c>
@@ -4625,9 +4615,7 @@
       <c r="D5" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="18" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E5" s="18"/>
       <c r="F5" t="s">
         <v>28</v>
       </c>
@@ -5654,7 +5642,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="21" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -5725,7 +5713,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="21" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -5796,7 +5784,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="21" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -5820,37 +5808,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="21" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="N4" s="21" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="O4" s="21" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="P4" s="21" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="Q4" s="21" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="R4" s="21" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="S4" s="21" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="T4" s="21" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="U4" s="21" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="V4" s="21" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="W4" s="21" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -5952,7 +5940,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="22" t="n">
-        <v>0</v>
+        <v>0.4545</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -6023,7 +6011,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="22" t="n">
-        <v>0</v>
+        <v>0.4545</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -6094,7 +6082,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="22" t="n">
-        <v>0</v>
+        <v>0.4545</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -6118,37 +6106,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="22" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0909</v>
       </c>
       <c r="N4" s="22" t="n">
-        <v>0.25</v>
+        <v>0.2727</v>
       </c>
       <c r="O4" s="22" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0909</v>
       </c>
       <c r="P4" s="22" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0909</v>
       </c>
       <c r="Q4" s="22" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0909</v>
       </c>
       <c r="R4" s="22" t="n">
-        <v>0.25</v>
+        <v>0.2727</v>
       </c>
       <c r="S4" s="22" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0909</v>
       </c>
       <c r="T4" s="22" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0909</v>
       </c>
       <c r="U4" s="22" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0909</v>
       </c>
       <c r="V4" s="22" t="n">
-        <v>0.25</v>
+        <v>0.2727</v>
       </c>
       <c r="W4" s="22" t="n">
-        <v>1</v>
+        <v>1.0908</v>
       </c>
     </row>
   </sheetData>
@@ -6250,7 +6238,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="23" t="n">
-        <v>0</v>
+        <v>0.0474</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -6321,7 +6309,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="23" t="n">
-        <v>0</v>
+        <v>0.0474</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -6392,7 +6380,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="23" t="n">
-        <v>0</v>
+        <v>0.0474</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -6416,37 +6404,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="23" t="n">
-        <v>0</v>
+        <v>0.00948333333333333</v>
       </c>
       <c r="N4" s="23" t="n">
-        <v>0</v>
+        <v>0.02845</v>
       </c>
       <c r="O4" s="23" t="n">
-        <v>0</v>
+        <v>0.00948333333333333</v>
       </c>
       <c r="P4" s="23" t="n">
-        <v>0</v>
+        <v>0.00948333333333333</v>
       </c>
       <c r="Q4" s="23" t="n">
-        <v>0</v>
+        <v>0.00948333333333333</v>
       </c>
       <c r="R4" s="23" t="n">
-        <v>0</v>
+        <v>0.02845</v>
       </c>
       <c r="S4" s="23" t="n">
-        <v>0</v>
+        <v>0.00948333333333333</v>
       </c>
       <c r="T4" s="23" t="n">
-        <v>0</v>
+        <v>0.00948333333333333</v>
       </c>
       <c r="U4" s="23" t="n">
-        <v>0</v>
+        <v>0.00948333333333333</v>
       </c>
       <c r="V4" s="23" t="n">
-        <v>0</v>
+        <v>0.02845</v>
       </c>
       <c r="W4" s="23" t="n">
-        <v>0</v>
+        <v>0.1138</v>
       </c>
     </row>
     <row r="5">
@@ -6666,7 +6654,7 @@
         <v>45</v>
       </c>
       <c r="E8" s="23" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -6715,7 +6703,7 @@
         <v>45</v>
       </c>
       <c r="E9" s="23" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -6764,7 +6752,7 @@
         <v>45</v>
       </c>
       <c r="E10" s="23" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -6909,9 +6897,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="24" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="24"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -6980,9 +6966,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="24" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="24"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -9208,7 +9192,7 @@
         <v>45</v>
       </c>
       <c r="E2" s="30" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -9354,7 +9338,7 @@
         <v>45</v>
       </c>
       <c r="E2" s="31" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -9500,7 +9484,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>0.6522</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -9571,7 +9555,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0</v>
+        <v>0.6522</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -9642,7 +9626,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0</v>
+        <v>0.6522</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -9666,37 +9650,37 @@
         <v>0.3333</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.130441666666667</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.25</v>
+        <v>0.391325</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.130441666666667</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.130441666666667</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.130441666666667</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.25</v>
+        <v>0.391325</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.130441666666667</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.130441666666667</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.130441666666667</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.25</v>
+        <v>0.391325</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1</v>
+        <v>1.5653</v>
       </c>
     </row>
     <row r="5">

--- a/outputs/SORs/SOR Testing_Finance.xlsx
+++ b/outputs/SORs/SOR Testing_Finance.xlsx
@@ -35,14 +35,15 @@
     <sheet name="South Beloit Gardner St Illino" sheetId="27" state="visible" r:id="rId27"/>
     <sheet name="Tianjin China" sheetId="28" state="visible" r:id="rId28"/>
     <sheet name="Tipp City Ohio" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="Downers Grove Aerospace Illino" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="Fort Wayne Indiana" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="Apodaca Pmc Plant 1 Mexico" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="Downers Grove Aerospace Illino" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="Fort Wayne Indiana" sheetId="32" state="visible" r:id="rId32"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t xml:space="preserve">segment_function</t>
   </si>
@@ -224,6 +225,9 @@
     <t xml:space="preserve">Tipp City Ohio</t>
   </si>
   <si>
+    <t xml:space="preserve">Apodaca Pmc Plant 1 Mexico</t>
+  </si>
+  <si>
     <t xml:space="preserve">Downers Grove Aerospace Illinois</t>
   </si>
   <si>
@@ -234,7 +238,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="31">
+  <numFmts count="32">
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
@@ -266,6 +270,7 @@
     <numFmt numFmtId="193" formatCode="0.0%"/>
     <numFmt numFmtId="194" formatCode="0.0%"/>
     <numFmt numFmtId="195" formatCode="0.0%"/>
+    <numFmt numFmtId="196" formatCode="0.0%"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -301,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -334,6 +339,7 @@
     <xf numFmtId="193" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="194" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="195" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="196" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2014,7 +2020,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="13" t="n">
-        <v>0.0476</v>
+        <v>0.0469</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2085,7 +2091,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="13" t="n">
-        <v>0.0476</v>
+        <v>0.0469</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -2156,7 +2162,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="13" t="n">
-        <v>0.0476</v>
+        <v>0.0469</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -2180,37 +2186,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="13" t="n">
-        <v>0.00951666666666667</v>
+        <v>0</v>
       </c>
       <c r="N4" s="13" t="n">
-        <v>0.02855</v>
+        <v>0</v>
       </c>
       <c r="O4" s="13" t="n">
-        <v>0.00951666666666667</v>
+        <v>0.00781666666666667</v>
       </c>
       <c r="P4" s="13" t="n">
-        <v>0.00951666666666667</v>
+        <v>0.00781666666666667</v>
       </c>
       <c r="Q4" s="13" t="n">
-        <v>0.00951666666666667</v>
+        <v>0.00781666666666667</v>
       </c>
       <c r="R4" s="13" t="n">
-        <v>0.02855</v>
+        <v>0.02345</v>
       </c>
       <c r="S4" s="13" t="n">
-        <v>0.00951666666666667</v>
+        <v>0.00781666666666667</v>
       </c>
       <c r="T4" s="13" t="n">
-        <v>0.00951666666666667</v>
+        <v>0.00781666666666667</v>
       </c>
       <c r="U4" s="13" t="n">
-        <v>0.00951666666666667</v>
+        <v>0.00781666666666667</v>
       </c>
       <c r="V4" s="13" t="n">
-        <v>0.02855</v>
+        <v>0.02345</v>
       </c>
       <c r="W4" s="13" t="n">
-        <v>0.1142</v>
+        <v>0.0938</v>
       </c>
     </row>
     <row r="5">
@@ -2832,7 +2838,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="15" t="n">
-        <v>0.0384</v>
+        <v>0.0382</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2903,7 +2909,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>0.0384</v>
+        <v>0.0382</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -2974,7 +2980,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>0.0384</v>
+        <v>0.0382</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -2998,37 +3004,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>0.00768333333333333</v>
+        <v>0</v>
       </c>
       <c r="N4" s="15" t="n">
-        <v>0.02305</v>
+        <v>0.0229</v>
       </c>
       <c r="O4" s="15" t="n">
-        <v>0.00768333333333333</v>
+        <v>0.00636666666666667</v>
       </c>
       <c r="P4" s="15" t="n">
-        <v>0.00768333333333333</v>
+        <v>0.00636666666666667</v>
       </c>
       <c r="Q4" s="15" t="n">
-        <v>0.00768333333333333</v>
+        <v>0.00636666666666667</v>
       </c>
       <c r="R4" s="15" t="n">
-        <v>0.02305</v>
+        <v>0.0191</v>
       </c>
       <c r="S4" s="15" t="n">
-        <v>0.00768333333333333</v>
+        <v>0.00636666666666667</v>
       </c>
       <c r="T4" s="15" t="n">
-        <v>0.00768333333333333</v>
+        <v>0.00636666666666667</v>
       </c>
       <c r="U4" s="15" t="n">
-        <v>0.00768333333333333</v>
+        <v>0.00636666666666667</v>
       </c>
       <c r="V4" s="15" t="n">
-        <v>0.02305</v>
+        <v>0.0191</v>
       </c>
       <c r="W4" s="15" t="n">
-        <v>0.0922</v>
+        <v>0.0764</v>
       </c>
     </row>
     <row r="5">
@@ -3192,11 +3198,9 @@
       <c r="L7" s="15" t="n">
         <v>0.3333</v>
       </c>
-      <c r="M7" s="15" t="n">
-        <v>0.333333333333333</v>
-      </c>
+      <c r="M7" s="15"/>
       <c r="N7" s="15" t="n">
-        <v>0.333333333333333</v>
+        <v>0.3333</v>
       </c>
       <c r="O7" s="15" t="n">
         <v>0.333333333333333</v>
@@ -3538,7 +3542,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="16" t="n">
-        <v>0.0559</v>
+        <v>0.0838</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -3609,7 +3613,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="16" t="n">
-        <v>0.0559</v>
+        <v>0.0838</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -3680,7 +3684,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="16" t="n">
-        <v>0.0559</v>
+        <v>0.0838</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -3704,37 +3708,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="16" t="n">
-        <v>0.0111833333333333</v>
+        <v>0.0278</v>
       </c>
       <c r="N4" s="16" t="n">
-        <v>0.03355</v>
+        <v>0.084</v>
       </c>
       <c r="O4" s="16" t="n">
-        <v>0.0111833333333333</v>
+        <v>0.0139666666666667</v>
       </c>
       <c r="P4" s="16" t="n">
-        <v>0.0111833333333333</v>
+        <v>0.0139666666666667</v>
       </c>
       <c r="Q4" s="16" t="n">
-        <v>0.0111833333333333</v>
+        <v>0.0139666666666667</v>
       </c>
       <c r="R4" s="16" t="n">
-        <v>0.03355</v>
+        <v>0.0419</v>
       </c>
       <c r="S4" s="16" t="n">
-        <v>0.0111833333333333</v>
+        <v>0.0139666666666667</v>
       </c>
       <c r="T4" s="16" t="n">
-        <v>0.0111833333333333</v>
+        <v>0.0139666666666667</v>
       </c>
       <c r="U4" s="16" t="n">
-        <v>0.0111833333333333</v>
+        <v>0.0139666666666667</v>
       </c>
       <c r="V4" s="16" t="n">
-        <v>0.03355</v>
+        <v>0.0419</v>
       </c>
       <c r="W4" s="16" t="n">
-        <v>0.1342</v>
+        <v>0.1676</v>
       </c>
     </row>
     <row r="5">
@@ -3882,9 +3886,7 @@
       <c r="L7" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="M7" s="16" t="n">
-        <v>0</v>
-      </c>
+      <c r="M7" s="16"/>
       <c r="N7" s="16" t="n">
         <v>0</v>
       </c>
@@ -3930,7 +3932,7 @@
         <v>45</v>
       </c>
       <c r="E8" s="16" t="n">
-        <v>0.3846</v>
+        <v>0.2703</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -4001,7 +4003,7 @@
         <v>45</v>
       </c>
       <c r="E9" s="16" t="n">
-        <v>0.3846</v>
+        <v>0.2703</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -4072,7 +4074,7 @@
         <v>45</v>
       </c>
       <c r="E10" s="16" t="n">
-        <v>0.3846</v>
+        <v>0.2703</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -4096,37 +4098,37 @@
         <v>0</v>
       </c>
       <c r="M10" s="16" t="n">
-        <v>0.0769166666666667</v>
+        <v>0</v>
       </c>
       <c r="N10" s="16" t="n">
-        <v>0.23075</v>
+        <v>0</v>
       </c>
       <c r="O10" s="16" t="n">
-        <v>0.0769166666666667</v>
+        <v>0.04505</v>
       </c>
       <c r="P10" s="16" t="n">
-        <v>0.0769166666666667</v>
+        <v>0.04505</v>
       </c>
       <c r="Q10" s="16" t="n">
-        <v>0.0769166666666667</v>
+        <v>0.04505</v>
       </c>
       <c r="R10" s="16" t="n">
-        <v>0.23075</v>
+        <v>0.13515</v>
       </c>
       <c r="S10" s="16" t="n">
-        <v>0.0769166666666667</v>
+        <v>0.04505</v>
       </c>
       <c r="T10" s="16" t="n">
-        <v>0.0769166666666667</v>
+        <v>0.04505</v>
       </c>
       <c r="U10" s="16" t="n">
-        <v>0.0769166666666667</v>
+        <v>0.04505</v>
       </c>
       <c r="V10" s="16" t="n">
-        <v>0.23075</v>
+        <v>0.13515</v>
       </c>
       <c r="W10" s="16" t="n">
-        <v>0.923</v>
+        <v>0.5406</v>
       </c>
     </row>
   </sheetData>
@@ -5642,7 +5644,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="21" t="n">
-        <v>0.25</v>
+        <v>0.2381</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -5713,7 +5715,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="21" t="n">
-        <v>0.25</v>
+        <v>0.2381</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -5784,7 +5786,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="21" t="n">
-        <v>0.25</v>
+        <v>0.2381</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -5808,37 +5810,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="21" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N4" s="21" t="n">
-        <v>0.15</v>
+        <v>0.2326</v>
       </c>
       <c r="O4" s="21" t="n">
-        <v>0.05</v>
+        <v>0.0396833333333333</v>
       </c>
       <c r="P4" s="21" t="n">
-        <v>0.05</v>
+        <v>0.0396833333333333</v>
       </c>
       <c r="Q4" s="21" t="n">
-        <v>0.05</v>
+        <v>0.0396833333333333</v>
       </c>
       <c r="R4" s="21" t="n">
-        <v>0.15</v>
+        <v>0.11905</v>
       </c>
       <c r="S4" s="21" t="n">
-        <v>0.05</v>
+        <v>0.0396833333333333</v>
       </c>
       <c r="T4" s="21" t="n">
-        <v>0.05</v>
+        <v>0.0396833333333333</v>
       </c>
       <c r="U4" s="21" t="n">
-        <v>0.05</v>
+        <v>0.0396833333333333</v>
       </c>
       <c r="V4" s="21" t="n">
-        <v>0.15</v>
+        <v>0.11905</v>
       </c>
       <c r="W4" s="21" t="n">
-        <v>0.6</v>
+        <v>0.4762</v>
       </c>
     </row>
   </sheetData>
@@ -6106,37 +6108,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="22" t="n">
-        <v>0.0909</v>
+        <v>0</v>
       </c>
       <c r="N4" s="22" t="n">
-        <v>0.2727</v>
+        <v>0</v>
       </c>
       <c r="O4" s="22" t="n">
-        <v>0.0909</v>
+        <v>0.07575</v>
       </c>
       <c r="P4" s="22" t="n">
-        <v>0.0909</v>
+        <v>0.07575</v>
       </c>
       <c r="Q4" s="22" t="n">
-        <v>0.0909</v>
+        <v>0.07575</v>
       </c>
       <c r="R4" s="22" t="n">
-        <v>0.2727</v>
+        <v>0.22725</v>
       </c>
       <c r="S4" s="22" t="n">
-        <v>0.0909</v>
+        <v>0.07575</v>
       </c>
       <c r="T4" s="22" t="n">
-        <v>0.0909</v>
+        <v>0.07575</v>
       </c>
       <c r="U4" s="22" t="n">
-        <v>0.0909</v>
+        <v>0.07575</v>
       </c>
       <c r="V4" s="22" t="n">
-        <v>0.2727</v>
+        <v>0.22725</v>
       </c>
       <c r="W4" s="22" t="n">
-        <v>1.0908</v>
+        <v>0.909</v>
       </c>
     </row>
   </sheetData>
@@ -6238,7 +6240,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="23" t="n">
-        <v>0.0474</v>
+        <v>0.0698</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -6309,7 +6311,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="23" t="n">
-        <v>0.0474</v>
+        <v>0.0698</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -6380,7 +6382,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="23" t="n">
-        <v>0.0474</v>
+        <v>0.0698</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -6404,37 +6406,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="23" t="n">
-        <v>0.00948333333333333</v>
+        <v>0.0213</v>
       </c>
       <c r="N4" s="23" t="n">
-        <v>0.02845</v>
+        <v>0.0447</v>
       </c>
       <c r="O4" s="23" t="n">
-        <v>0.00948333333333333</v>
+        <v>0.0116333333333333</v>
       </c>
       <c r="P4" s="23" t="n">
-        <v>0.00948333333333333</v>
+        <v>0.0116333333333333</v>
       </c>
       <c r="Q4" s="23" t="n">
-        <v>0.00948333333333333</v>
+        <v>0.0116333333333333</v>
       </c>
       <c r="R4" s="23" t="n">
-        <v>0.02845</v>
+        <v>0.0349</v>
       </c>
       <c r="S4" s="23" t="n">
-        <v>0.00948333333333333</v>
+        <v>0.0116333333333333</v>
       </c>
       <c r="T4" s="23" t="n">
-        <v>0.00948333333333333</v>
+        <v>0.0116333333333333</v>
       </c>
       <c r="U4" s="23" t="n">
-        <v>0.00948333333333333</v>
+        <v>0.0116333333333333</v>
       </c>
       <c r="V4" s="23" t="n">
-        <v>0.02845</v>
+        <v>0.0349</v>
       </c>
       <c r="W4" s="23" t="n">
-        <v>0.1138</v>
+        <v>0.1396</v>
       </c>
     </row>
     <row r="5">
@@ -8761,12 +8763,8 @@
       </c>
       <c r="K5" s="29"/>
       <c r="L5" s="29"/>
-      <c r="M5" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" s="29" t="n">
-        <v>1</v>
-      </c>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
       <c r="O5" s="29" t="n">
         <v>1</v>
       </c>
@@ -9189,7 +9187,7 @@
         <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="E2" s="30" t="n">
         <v>0</v>
@@ -9202,9 +9200,7 @@
       <c r="I2" s="30"/>
       <c r="J2" s="30"/>
       <c r="K2" s="30"/>
-      <c r="L2" s="30" t="n">
-        <v>0</v>
-      </c>
+      <c r="L2" s="30"/>
       <c r="M2" s="30" t="n">
         <v>0</v>
       </c>
@@ -9236,6 +9232,65 @@
         <v>0</v>
       </c>
       <c r="W2" s="30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" s="30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9391,6 +9446,152 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" s="32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
@@ -9484,7 +9685,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.6522</v>
+        <v>0.6977</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -9555,7 +9756,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.6522</v>
+        <v>0.6977</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -9626,7 +9827,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.6522</v>
+        <v>0.6977</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -9650,37 +9851,37 @@
         <v>0.3333</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.130441666666667</v>
+        <v>0</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.391325</v>
+        <v>0.6061</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.130441666666667</v>
+        <v>0.116283333333333</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.130441666666667</v>
+        <v>0.116283333333333</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.130441666666667</v>
+        <v>0.116283333333333</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.391325</v>
+        <v>0.34885</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.130441666666667</v>
+        <v>0.116283333333333</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0.130441666666667</v>
+        <v>0.116283333333333</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.130441666666667</v>
+        <v>0.116283333333333</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.391325</v>
+        <v>0.34885</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.5653</v>
+        <v>1.3954</v>
       </c>
     </row>
     <row r="5">

--- a/outputs/SORs/SOR Testing_Finance.xlsx
+++ b/outputs/SORs/SOR Testing_Finance.xlsx
@@ -2020,7 +2020,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="13" t="n">
-        <v>0.0469</v>
+        <v>0.0463</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2091,7 +2091,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="13" t="n">
-        <v>0.0469</v>
+        <v>0.0463</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -2162,7 +2162,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="13" t="n">
-        <v>0.0469</v>
+        <v>0.0463</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -2192,31 +2192,31 @@
         <v>0</v>
       </c>
       <c r="O4" s="13" t="n">
-        <v>0.00781666666666667</v>
+        <v>0</v>
       </c>
       <c r="P4" s="13" t="n">
-        <v>0.00781666666666667</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="13" t="n">
-        <v>0.00781666666666667</v>
+        <v>0</v>
       </c>
       <c r="R4" s="13" t="n">
-        <v>0.02345</v>
+        <v>0</v>
       </c>
       <c r="S4" s="13" t="n">
-        <v>0.00781666666666667</v>
+        <v>0</v>
       </c>
       <c r="T4" s="13" t="n">
-        <v>0.00781666666666667</v>
+        <v>0</v>
       </c>
       <c r="U4" s="13" t="n">
-        <v>0.00781666666666667</v>
+        <v>0</v>
       </c>
       <c r="V4" s="13" t="n">
-        <v>0.02345</v>
+        <v>0</v>
       </c>
       <c r="W4" s="13" t="n">
-        <v>0.0938</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2838,7 +2838,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="15" t="n">
-        <v>0.0382</v>
+        <v>0.0497</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2909,7 +2909,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>0.0382</v>
+        <v>0.0497</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -2980,7 +2980,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>0.0382</v>
+        <v>0.0497</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -2995,10 +2995,10 @@
         <v>0.0076</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>0.0153</v>
+        <v>0.0154</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>0.0233</v>
+        <v>0.0234</v>
       </c>
       <c r="L4" s="15" t="n">
         <v>0</v>
@@ -3007,34 +3007,34 @@
         <v>0</v>
       </c>
       <c r="N4" s="15" t="n">
-        <v>0.0229</v>
+        <v>0.023</v>
       </c>
       <c r="O4" s="15" t="n">
-        <v>0.00636666666666667</v>
+        <v>0.0112</v>
       </c>
       <c r="P4" s="15" t="n">
-        <v>0.00636666666666667</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="15" t="n">
-        <v>0.00636666666666667</v>
+        <v>0</v>
       </c>
       <c r="R4" s="15" t="n">
-        <v>0.0191</v>
+        <v>0</v>
       </c>
       <c r="S4" s="15" t="n">
-        <v>0.00636666666666667</v>
+        <v>0</v>
       </c>
       <c r="T4" s="15" t="n">
-        <v>0.00636666666666667</v>
+        <v>0</v>
       </c>
       <c r="U4" s="15" t="n">
-        <v>0.00636666666666667</v>
+        <v>0</v>
       </c>
       <c r="V4" s="15" t="n">
-        <v>0.0191</v>
+        <v>0</v>
       </c>
       <c r="W4" s="15" t="n">
-        <v>0.0764</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -3051,7 +3051,7 @@
         <v>30</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -3114,7 +3114,7 @@
         <v>30</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>0.333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -3185,7 +3185,7 @@
         <v>30</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>0.333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -3203,31 +3203,31 @@
         <v>0.3333</v>
       </c>
       <c r="O7" s="15" t="n">
-        <v>0.333333333333333</v>
+        <v>1</v>
       </c>
       <c r="P7" s="15" t="n">
-        <v>0.333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="Q7" s="15" t="n">
-        <v>0.333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="R7" s="15" t="n">
-        <v>0.333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="S7" s="15" t="n">
-        <v>0.333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="T7" s="15" t="n">
-        <v>0.333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="U7" s="15" t="n">
-        <v>0.333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="V7" s="15" t="n">
-        <v>0.333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="W7" s="15" t="n">
-        <v>0.333333333333333</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8">
@@ -3542,7 +3542,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="16" t="n">
-        <v>0.0838</v>
+        <v>0.0789</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -3613,7 +3613,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="16" t="n">
-        <v>0.0838</v>
+        <v>0.0789</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -3684,7 +3684,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="16" t="n">
-        <v>0.0838</v>
+        <v>0.0789</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -3702,43 +3702,43 @@
         <v>0</v>
       </c>
       <c r="K4" s="16" t="n">
-        <v>0.0571</v>
+        <v>0.0541</v>
       </c>
       <c r="L4" s="16" t="n">
         <v>0</v>
       </c>
       <c r="M4" s="16" t="n">
-        <v>0.0278</v>
+        <v>0.0263</v>
       </c>
       <c r="N4" s="16" t="n">
-        <v>0.084</v>
+        <v>0.0796</v>
       </c>
       <c r="O4" s="16" t="n">
-        <v>0.0139666666666667</v>
+        <v>0</v>
       </c>
       <c r="P4" s="16" t="n">
-        <v>0.0139666666666667</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="16" t="n">
-        <v>0.0139666666666667</v>
+        <v>0</v>
       </c>
       <c r="R4" s="16" t="n">
-        <v>0.0419</v>
+        <v>0</v>
       </c>
       <c r="S4" s="16" t="n">
-        <v>0.0139666666666667</v>
+        <v>0</v>
       </c>
       <c r="T4" s="16" t="n">
-        <v>0.0139666666666667</v>
+        <v>0</v>
       </c>
       <c r="U4" s="16" t="n">
-        <v>0.0139666666666667</v>
+        <v>0</v>
       </c>
       <c r="V4" s="16" t="n">
-        <v>0.0419</v>
+        <v>0</v>
       </c>
       <c r="W4" s="16" t="n">
-        <v>0.1676</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -3755,7 +3755,7 @@
         <v>30</v>
       </c>
       <c r="E5" s="16" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -3798,7 +3798,7 @@
         <v>30</v>
       </c>
       <c r="E6" s="16" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -3869,7 +3869,7 @@
         <v>30</v>
       </c>
       <c r="E7" s="16" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -3886,36 +3886,38 @@
       <c r="L7" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="M7" s="16"/>
+      <c r="M7" s="16" t="n">
+        <v>1</v>
+      </c>
       <c r="N7" s="16" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O7" s="16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" s="16" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q7" s="16" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R7" s="16" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S7" s="16" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="T7" s="16" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="U7" s="16" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="V7" s="16" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="W7" s="16" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8">
@@ -3932,7 +3934,7 @@
         <v>45</v>
       </c>
       <c r="E8" s="16" t="n">
-        <v>0.2703</v>
+        <v>0.2273</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -4003,7 +4005,7 @@
         <v>45</v>
       </c>
       <c r="E9" s="16" t="n">
-        <v>0.2703</v>
+        <v>0.2273</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -4074,7 +4076,7 @@
         <v>45</v>
       </c>
       <c r="E10" s="16" t="n">
-        <v>0.2703</v>
+        <v>0.2273</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -4104,31 +4106,31 @@
         <v>0</v>
       </c>
       <c r="O10" s="16" t="n">
-        <v>0.04505</v>
+        <v>0</v>
       </c>
       <c r="P10" s="16" t="n">
-        <v>0.04505</v>
+        <v>0.032475</v>
       </c>
       <c r="Q10" s="16" t="n">
-        <v>0.04505</v>
+        <v>0.032475</v>
       </c>
       <c r="R10" s="16" t="n">
-        <v>0.13515</v>
+        <v>0.097425</v>
       </c>
       <c r="S10" s="16" t="n">
-        <v>0.04505</v>
+        <v>0.032475</v>
       </c>
       <c r="T10" s="16" t="n">
-        <v>0.04505</v>
+        <v>0.032475</v>
       </c>
       <c r="U10" s="16" t="n">
-        <v>0.04505</v>
+        <v>0.032475</v>
       </c>
       <c r="V10" s="16" t="n">
-        <v>0.13515</v>
+        <v>0.097425</v>
       </c>
       <c r="W10" s="16" t="n">
-        <v>0.5406</v>
+        <v>0.3897</v>
       </c>
     </row>
   </sheetData>
@@ -5644,7 +5646,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="21" t="n">
-        <v>0.2381</v>
+        <v>0.2326</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -5715,7 +5717,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="21" t="n">
-        <v>0.2381</v>
+        <v>0.2326</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -5786,7 +5788,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="21" t="n">
-        <v>0.2381</v>
+        <v>0.2326</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -5816,31 +5818,31 @@
         <v>0.2326</v>
       </c>
       <c r="O4" s="21" t="n">
-        <v>0.0396833333333333</v>
+        <v>0</v>
       </c>
       <c r="P4" s="21" t="n">
-        <v>0.0396833333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="21" t="n">
-        <v>0.0396833333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="21" t="n">
-        <v>0.11905</v>
+        <v>0</v>
       </c>
       <c r="S4" s="21" t="n">
-        <v>0.0396833333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="21" t="n">
-        <v>0.0396833333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="21" t="n">
-        <v>0.0396833333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="21" t="n">
-        <v>0.11905</v>
+        <v>0</v>
       </c>
       <c r="W4" s="21" t="n">
-        <v>0.4762</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5942,7 +5944,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="22" t="n">
-        <v>0.4545</v>
+        <v>0.4762</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -6013,7 +6015,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="22" t="n">
-        <v>0.4545</v>
+        <v>0.4762</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -6084,7 +6086,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="22" t="n">
-        <v>0.4545</v>
+        <v>0.4762</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -6114,31 +6116,31 @@
         <v>0</v>
       </c>
       <c r="O4" s="22" t="n">
-        <v>0.07575</v>
+        <v>0</v>
       </c>
       <c r="P4" s="22" t="n">
-        <v>0.07575</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="22" t="n">
-        <v>0.07575</v>
+        <v>0</v>
       </c>
       <c r="R4" s="22" t="n">
-        <v>0.22725</v>
+        <v>0</v>
       </c>
       <c r="S4" s="22" t="n">
-        <v>0.07575</v>
+        <v>0</v>
       </c>
       <c r="T4" s="22" t="n">
-        <v>0.07575</v>
+        <v>0</v>
       </c>
       <c r="U4" s="22" t="n">
-        <v>0.07575</v>
+        <v>0</v>
       </c>
       <c r="V4" s="22" t="n">
-        <v>0.22725</v>
+        <v>0</v>
       </c>
       <c r="W4" s="22" t="n">
-        <v>0.909</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6240,7 +6242,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="23" t="n">
-        <v>0.0698</v>
+        <v>0.0943</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -6311,7 +6313,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="23" t="n">
-        <v>0.0698</v>
+        <v>0.0943</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -6382,7 +6384,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="23" t="n">
-        <v>0.0698</v>
+        <v>0.0943</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -6391,52 +6393,52 @@
         <v>0</v>
       </c>
       <c r="H4" s="23" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I4" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="23" t="n">
+        <v>0.0248</v>
+      </c>
+      <c r="K4" s="23" t="n">
         <v>0.0244</v>
       </c>
-      <c r="I4" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="23" t="n">
-        <v>0.0242</v>
-      </c>
-      <c r="K4" s="23" t="n">
-        <v>0.0238</v>
-      </c>
       <c r="L4" s="23" t="n">
         <v>0</v>
       </c>
       <c r="M4" s="23" t="n">
-        <v>0.0213</v>
+        <v>0.0217</v>
       </c>
       <c r="N4" s="23" t="n">
-        <v>0.0447</v>
+        <v>0.0458</v>
       </c>
       <c r="O4" s="23" t="n">
-        <v>0.0116333333333333</v>
+        <v>0.0222</v>
       </c>
       <c r="P4" s="23" t="n">
-        <v>0.0116333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="23" t="n">
-        <v>0.0116333333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="23" t="n">
-        <v>0.0349</v>
+        <v>0</v>
       </c>
       <c r="S4" s="23" t="n">
-        <v>0.0116333333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="23" t="n">
-        <v>0.0116333333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="23" t="n">
-        <v>0.0116333333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="23" t="n">
-        <v>0.0349</v>
+        <v>0</v>
       </c>
       <c r="W4" s="23" t="n">
-        <v>0.1396</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -6453,7 +6455,7 @@
         <v>30</v>
       </c>
       <c r="E5" s="23" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -6516,7 +6518,7 @@
         <v>30</v>
       </c>
       <c r="E6" s="23" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -6587,7 +6589,7 @@
         <v>30</v>
       </c>
       <c r="E7" s="23" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -6609,37 +6611,35 @@
         <v>0</v>
       </c>
       <c r="M7" s="23" t="n">
-        <v>0</v>
+        <v>0.3333</v>
       </c>
       <c r="N7" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" s="23" t="n">
-        <v>0</v>
-      </c>
+        <v>0.1667</v>
+      </c>
+      <c r="O7" s="23"/>
       <c r="P7" s="23" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="Q7" s="23" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="R7" s="23" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="S7" s="23" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="T7" s="23" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="U7" s="23" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="V7" s="23" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="W7" s="23" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="8">
@@ -8765,9 +8765,7 @@
       <c r="L5" s="29"/>
       <c r="M5" s="29"/>
       <c r="N5" s="29"/>
-      <c r="O5" s="29" t="n">
-        <v>1</v>
-      </c>
+      <c r="O5" s="29"/>
       <c r="P5" s="29" t="n">
         <v>1</v>
       </c>
@@ -9266,9 +9264,7 @@
       <c r="N3" s="30" t="n">
         <v>0</v>
       </c>
-      <c r="O3" s="30" t="n">
-        <v>0</v>
-      </c>
+      <c r="O3" s="30"/>
       <c r="P3" s="30" t="n">
         <v>0</v>
       </c>
@@ -9685,7 +9681,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.6977</v>
+        <v>0.7317</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -9756,7 +9752,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.6977</v>
+        <v>0.7317</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -9827,7 +9823,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.6977</v>
+        <v>0.7317</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -9857,31 +9853,31 @@
         <v>0.6061</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.116283333333333</v>
+        <v>0</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.116283333333333</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.116283333333333</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.34885</v>
+        <v>0.25</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.116283333333333</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0.116283333333333</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.116283333333333</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.34885</v>
+        <v>0.25</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.3954</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
